--- a/scripts/dataset.xlsx
+++ b/scripts/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\venyuk\venyuk\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF6A1B-D08C-4096-B6BC-FF41CFC18D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BF648-CDD5-4D1C-8FE4-B9D9C04B9B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
     <t>https://asset.ayo.co.id/image/venue/174175567252009.image_cropper_1741755659927.jpg_middle.jpeg</t>
   </si>
   <si>
-    <t>thumbnail</t>
+    <t>image_url</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J100"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="100">
       <c r="A51" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="62.5">
       <c r="A52" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="100">
       <c r="A53" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="62.5">
       <c r="A54" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="100">
       <c r="A55" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="62.5">
       <c r="A56" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="62.5">
       <c r="A57" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="62.5">
       <c r="A59" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="112.5">
       <c r="A60" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="62.5">
       <c r="A61" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="J61" s="15"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" ht="50">
       <c r="A62" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="62.5">
       <c r="A64" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="62.5">
       <c r="A65" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J66" s="15"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="100">
       <c r="A67" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="100">
       <c r="A68" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" ht="62.5">
       <c r="A69" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="100">
       <c r="A81" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J82" s="15"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="62.5">
       <c r="A83" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="62.5">
       <c r="A91" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" ht="100">
       <c r="A93" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
